--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3241796.303118283</v>
+        <v>3239908.721601881</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8689616.97167879</v>
+        <v>8689616.971678792</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>320.797539652425</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>110.455314574987</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.08467608327369</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>271.7130487994166</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>95.33023562355984</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,7 +1187,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>112.3932904856843</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974894</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>113.7743197194991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863553</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.633341602776479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>59.77945773665019</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>204.1144943768562</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>96.84207451769382</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>108.6200406500438</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>15.38354914932535</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>228.2066444308515</v>
+        <v>182.0185426809061</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>82.16809304408125</v>
       </c>
       <c r="F31" t="n">
-        <v>52.6093511683688</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2373.111172177389</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.645413916309</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.506081940498</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>79.28103847013585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1620.08070321196</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1251.118186271549</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>892.8524876647982</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>892.8524876647982</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>481.8665828751907</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1620.08070321196</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>631.8358169099093</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>404.5276295785111</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>404.5276295785111</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5276295785111</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1196.18634261119</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>806.0470106353782</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4896,28 +4896,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V13" t="n">
-        <v>1094.86407649924</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W13" t="n">
-        <v>805.446906462279</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>577.4573555642617</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,22 +5288,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028569</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,7 +5671,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>620.2426249169052</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705858</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5741,40 +5741,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018331</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,40 +5978,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V25" t="n">
-        <v>789.0753054710162</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>693.9123150842265</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,10 +6233,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765185</v>
+        <v>898.7925182488375</v>
       </c>
       <c r="V28" t="n">
-        <v>555.5704444251534</v>
+        <v>714.9354044297404</v>
       </c>
       <c r="W28" t="n">
-        <v>266.1532743881927</v>
+        <v>714.9354044297404</v>
       </c>
       <c r="X28" t="n">
-        <v>266.1532743881927</v>
+        <v>486.945853531723</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881927</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,43 +6449,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.734267659891</v>
+        <v>439.5324299542163</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133548</v>
+        <v>439.5324299542163</v>
       </c>
       <c r="D31" t="n">
-        <v>413.2031758823898</v>
+        <v>439.5324299542163</v>
       </c>
       <c r="E31" t="n">
-        <v>413.2031758823898</v>
+        <v>356.5343561723161</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>265.4052739557764</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386969</v>
+        <v>902.6804289818916</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220503</v>
+        <v>730.451743365245</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.734267659891</v>
+        <v>565.4200295030855</v>
       </c>
     </row>
     <row r="32">
@@ -6683,34 +6683,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6795,7 +6795,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,22 +7099,22 @@
         <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,22 +7315,22 @@
         <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
@@ -7351,16 +7351,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7494,22 +7494,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7646,28 +7646,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,13 +8304,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.365749697064</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>18.73797368291358</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9720,10 +9720,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>138.3633236043289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>185.2331835502357</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>282.8896567338145</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>158.8051956154446</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.47015897523852</v>
       </c>
     </row>
     <row r="20">
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>124.7054865406952</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>143.5176026737842</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>271.1394491872657</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>23.9309988929765</v>
+        <v>70.11910064292189</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>9.062612973930966</v>
       </c>
       <c r="F31" t="n">
-        <v>37.60844022600538</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138033</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380337</v>
-      </c>
       <c r="D2" t="n">
+        <v>677359.4601380333</v>
+      </c>
+      <c r="E2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672194</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645197.9485672197</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="K2" t="n">
+        <v>671256.5266196954</v>
+      </c>
+      <c r="L2" t="n">
         <v>677359.4601380335</v>
-      </c>
-      <c r="E2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645197.9485672193</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645197.9485672192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>671256.5266196957</v>
-      </c>
-      <c r="L2" t="n">
-        <v>677359.4601380337</v>
       </c>
       <c r="M2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380344</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600752</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007492</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007491</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.7316560075</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.354170204</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,28 +26482,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143384.5458558412</v>
+        <v>-143384.5458558417</v>
       </c>
       <c r="C6" t="n">
-        <v>446583.3333587035</v>
+        <v>446583.3333587033</v>
       </c>
       <c r="D6" t="n">
-        <v>446583.3333587032</v>
+        <v>446583.3333587031</v>
       </c>
       <c r="E6" t="n">
-        <v>20133.85448559928</v>
+        <v>20036.39535962719</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624952</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624955</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624956</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624955</v>
+        <v>545196.4318365235</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.6717699022</v>
+        <v>368773.2126439304</v>
       </c>
       <c r="K6" t="n">
-        <v>504384.3586164233</v>
+        <v>504365.8648784886</v>
       </c>
       <c r="L6" t="n">
-        <v>538965.9286198134</v>
+        <v>538965.9286198132</v>
       </c>
       <c r="M6" t="n">
         <v>414507.8201868432</v>
       </c>
       <c r="N6" t="n">
-        <v>549308.8354206801</v>
+        <v>549308.8354206812</v>
       </c>
       <c r="O6" t="n">
-        <v>549308.8354206801</v>
+        <v>549308.8354206805</v>
       </c>
       <c r="P6" t="n">
-        <v>505146.2301178345</v>
+        <v>505146.2301178349</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>28.44342906498804</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>275.7826240810666</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>121.3492865632955</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>142.0711212213783</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.8153033264591</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>257.3378101927847</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855698</v>
       </c>
     </row>
     <row r="32">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,19 +35498,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>607.5603230950769</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,10 +36054,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187475</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,10 +36291,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
         <v>39.22569997187475</v>
@@ -36370,7 +36370,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36440,10 +36440,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36452,10 +36452,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36686,16 +36686,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,7 +37628,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
